--- a/Misc/modexp2.xlsx
+++ b/Misc/modexp2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrand\Desktop\Math 406 Spring 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrand\Documents\GitHub\Randall-Holmes.github.io\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FAC97-C66B-4D31-B272-51A5E724E6C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A65642-705E-4485-BB5B-519984AA8D00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2310" windowWidth="27210" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="27210" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>&lt;---exponent</t>
   </si>
   <si>
-    <t>put modulus in A3.  Put base in A5.  Put exponent in a7 then fill down until it reaches 0.  Fill column D downward from D7 to the 0 in column A.  Write in 1 into column D opposite the 0 in column A.   The result will be in D7.</t>
+    <t>put modulus in A3.  Put base in A5.  Put exponent in a7 then fill down until it reaches 0.  Fill column D downward from D7 to the 0 in column A.  Write in 1 into column D opposite any 0 in column A.   The result will be in D7.</t>
   </si>
 </sst>
 </file>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,97 +377,92 @@
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>31*37</f>
-        <v>1147</v>
+        <v>561</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="H5">
-        <f>2^0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12791</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
         <f>A7-2*A8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>(E7+$A$3)-(ROUND((E7+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f>D8*D8*$A$5^C7</f>
-        <v>2440251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>ROUND((A7+2)/2-0.5,0)-1</f>
-        <v>6395</v>
+        <v>280</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C22" si="0">A8-2*A9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D22" si="1">(E8+$A$3)-(ROUND((E8+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>471</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E22" si="2">D9*D9*$A$5^C8</f>
-        <v>11579436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>214369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ref="A9:A22" si="3">ROUND((A8+2)/2-0.5,0)-1</f>
-        <v>3197</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1026</v>
+        <v>463</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>4491531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
-        <v>1598</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -475,17 +470,17 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>639</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>72900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>132496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
-        <v>799</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -493,17 +488,17 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>237699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1711975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
-        <v>399</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -511,89 +506,89 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>235</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>801900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3214204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>237699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>801900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>444889</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -601,17 +596,17 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>667</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>351649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -619,47 +614,47 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>593</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>33856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>1331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,11 +667,12 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,8 +685,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>

--- a/Misc/modexp2.xlsx
+++ b/Misc/modexp2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrand\Desktop\Math 406 Spring 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrand\Desktop\admin\Math 189 Fall 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E084C536-F6B0-44D4-8AD7-EFB98A12C892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1100" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +96,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{F9261D0A-8979-4B45-A687-F166FC4FAC96}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,42 +374,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3011</v>
+        <f>593*613</f>
+        <v>363509</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>324</v>
+        <v>242365</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -420,9 +420,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1505</v>
+        <v>72461</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -432,72 +432,88 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <f>(E7+$A$3)-(ROUND((E7+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>1</v>
+        <f>(F7+$A$3)-(ROUND((F7+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>191519</v>
       </c>
       <c r="E7">
-        <f>D8*D8*$A$5^C7</f>
-        <v>1096934400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>((D8*D8)+$A$3)-(ROUND(((D8*D8)+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>224623</v>
+      </c>
+      <c r="F7">
+        <f>((E7*$A$5^C7)+$A$3)-(ROUND(((E7*$A$5^C7)+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>191519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>ROUND((A7+2)/2-0.5,0)-1</f>
-        <v>752</v>
+        <v>36230</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C31" si="0">A8-2*A9</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D29" si="1">(E8+$A$3)-(ROUND((E8+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>1840</v>
+        <f t="shared" ref="D8:D31" si="1">(F8+$A$3)-(ROUND((F8+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>356012</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E31" si="2">D9*D9*$A$5^C8</f>
-        <v>59049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E8:E31" si="2">((D9*D9)+$A$3)-(ROUND(((D9*D9)+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>356012</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F31" si="3">((E8*$A$5^C8)+$A$3)-(ROUND(((E8*$A$5^C8)+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>356012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" ref="A9:A31" si="3">ROUND((A8+2)/2-0.5,0)-1</f>
-        <v>376</v>
+        <f t="shared" ref="A9:A31" si="4">ROUND((A8+2)/2-0.5,0)-1</f>
+        <v>18115</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>42607</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>1885129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138566</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>42607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="3"/>
-        <v>188</v>
+        <f t="shared" si="4"/>
+        <v>9057</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>1373</v>
+        <v>311217</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>2518569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300100</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>311217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f t="shared" si="4"/>
+        <v>4528</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -505,71 +521,87 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>1587</v>
+        <v>84859</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>3370896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84859</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>84859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="3"/>
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>2264</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1836</v>
+        <v>33856</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>769396644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33856</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>33856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>1132</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>1541</v>
+        <v>279712</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>7387524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279712</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>279712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>566</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>220124</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>353139264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>220124</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>220124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>283</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -577,160 +609,196 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1044</v>
+        <v>300662</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>2193610896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16435</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>300662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>148065</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>86024</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>148065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>191504</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>191504</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>191504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>251092</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>137247</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>251092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>319231</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>220157</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>319231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>237715</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>237715</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>237715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>169210</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>169210</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>169210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>2602</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>104976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>283388</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283388</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>283388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>242365</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>242365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C24">
@@ -745,10 +813,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C25">
@@ -763,10 +835,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C26">
@@ -781,10 +857,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C27">
@@ -799,10 +879,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C28">
@@ -817,10 +901,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C29">
@@ -835,10 +923,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C30">
@@ -846,24 +938,41 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Misc/modexp2.xlsx
+++ b/Misc/modexp2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrand\Desktop\Spring 2023 classes\Math 287 sping 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,13 +47,13 @@
     <t>&lt;---exponent</t>
   </si>
   <si>
+    <t>put modulus in A3.  Put base in A5.  Put exponent in a7 then fill down until it reaches 0.  Fill column D downward from D7 to the 0 in column A.  Write in 1 into column D opposite any 0 in column A.   The result will be in D7.</t>
+  </si>
+  <si>
     <t>note about in class example</t>
   </si>
   <si>
     <t>&lt;- result</t>
-  </si>
-  <si>
-    <t>put modulus in A3.  Put base in A5.  Put exponent in a7 then fill down until it reaches 0.  Fill column D downward from D7 to the 0 in column A (and columns F,G) too).  Write in 1 into column D opposite any 0 in column A.   The result will be in D7.</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,12 +402,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>15</v>
+        <v>28907</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>12</v>
+        <v>15532</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>20771</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -438,109 +438,109 @@
       </c>
       <c r="D7">
         <f>(G7+$A$3)-(ROUND((G7+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f>((D8*D8)+$A$3)-(ROUND(((D8*D8)+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>9</v>
+        <v>6875</v>
       </c>
       <c r="G7">
         <f>((F7*$A$5^C7)+$A$3)-(ROUND(((F7*$A$5^C7)+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" ref="A8:A37" si="0">ROUND((A7+2)/2-0.5,0)-1</f>
-        <v>25</v>
+        <f>ROUND((A7+2)/2-0.5,0)-1</f>
+        <v>10385</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C37" si="1">A8-2*A9</f>
+        <f t="shared" ref="C8:C37" si="0">A8-2*A9</f>
         <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D37" si="2">(G8+$A$3)-(ROUND((G8+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>12</v>
+        <f t="shared" ref="D8:D37" si="1">(G8+$A$3)-(ROUND((G8+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>16709</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F30" si="3">((D9*D9)+$A$3)-(ROUND(((D9*D9)+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>6</v>
+        <f t="shared" ref="F8:F30" si="2">((D9*D9)+$A$3)-(ROUND(((D9*D9)+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>22664</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G37" si="4">((F8*$A$5^C8)+$A$3)-(ROUND(((F8*$A$5^C8)+$A$3)/$A$3-0.5,0))*$A$3</f>
-        <v>12</v>
+        <f t="shared" ref="G8:G37" si="3">((F8*$A$5^C8)+$A$3)-(ROUND(((F8*$A$5^C8)+$A$3)/$A$3-0.5,0))*$A$3</f>
+        <v>16709</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="A9:A37" si="4">ROUND((A8+2)/2-0.5,0)-1</f>
+        <v>5192</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>15467</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>15467</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>15467</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>2596</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8010</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8010</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>8010</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1298</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>23024</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>23024</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>23024</v>
       </c>
       <c r="J11">
         <v>593</v>
@@ -548,24 +548,24 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>649</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>5692</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>24597</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>5692</v>
       </c>
       <c r="J12">
         <v>613</v>
@@ -573,24 +573,24 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>324</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3387</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3387</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3387</v>
       </c>
       <c r="J13">
         <v>191519</v>
@@ -598,522 +598,522 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>162</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>17427</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>17427</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>17427</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10436</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>13773</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>10436</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>12171</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>12171</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>12171</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2942</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2942</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2942</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>4489</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4489</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4489</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>10279</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14109</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>14109</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>14109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>15532</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>15532</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
